--- a/data/requests/Brzesko/Brzesko_requests.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmich\Documents\GitHub\TORPA\data\requests\Brzesko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812E271-B4EB-43E5-B5C2-2FC59EF068E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E0BE9-1628-489E-BB36-F43F5127F7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>request_time</t>
+  </si>
+  <si>
+    <t>request_type</t>
+  </si>
+  <si>
+    <t>taxi</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,13 +141,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +515,7 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +528,11 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -522,8 +545,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -536,8 +562,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,8 +579,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -564,8 +596,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -578,8 +613,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -592,8 +630,11 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -606,8 +647,11 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -620,8 +664,11 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -634,8 +681,11 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -648,8 +698,11 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -662,6 +715,9 @@
       <c r="D12" t="str">
         <f>"2016-01-01 00:33:31"</f>
         <v>2016-01-01 00:33:31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests/Brzesko/Brzesko_requests.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E0BE9-1628-489E-BB36-F43F5127F7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B9A52-DE8E-4FC4-8387-B15BDC0B995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>2016-01-01 00:02:45</t>
-  </si>
-  <si>
-    <t>2016-01-01 00:03:31</t>
   </si>
   <si>
     <t>request_time</t>
@@ -161,7 +158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,7 +502,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,11 +692,12 @@
       <c r="C11">
         <v>581903789</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
+      <c r="D11" t="str">
+        <f>"2016-01-01 00:23:31"</f>
+        <v>2016-01-01 00:23:31</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,7 +715,7 @@
         <v>2016-01-01 00:33:31</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
